--- a/pcb/wch554g/Outputs/2023-11-22/Bill of Materials-wch554g.xlsx
+++ b/pcb/wch554g/Outputs/2023-11-22/Bill of Materials-wch554g.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\dev\hid_kbd\pcb\wch554g\Outputs\2023-11-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\hid_kbd\pcb\wch554g\Outputs\2023-11-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9347E44-3A47-4C55-B1A0-AA384415AD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D93EB6-B0FF-424B-93BE-E9D015F2057C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13650" yWindow="4860" windowWidth="7500" windowHeight="8055" xr2:uid="{F8002C35-F70A-43E4-9DAF-A23A7BEE191B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F8002C35-F70A-43E4-9DAF-A23A7BEE191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-wch554g" sheetId="1" r:id="rId1"/>
@@ -584,7 +584,9 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
